--- a/Sprint1/BurnDown.xlsx
+++ b/Sprint1/BurnDown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahal\OneDrive\Desktop\COMP3297Group\Sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF38739-B27C-4164-845A-FDFAC2648C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA51D30-52A7-4384-A304-78F158B4267B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B5A675B9-B447-4C42-A453-A8CBFBDA8606}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B5A675B9-B447-4C42-A453-A8CBFBDA8606}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t>Create PBI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,20 +74,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d&quot;/&quot;m"/>
+    <numFmt numFmtId="176" formatCode="d&quot;/&quot;m"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -364,13 +364,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -409,24 +409,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,7 +444,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -519,7 +519,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-HK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1841,7 +1841,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-HK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1879,7 +1879,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1903131696"/>
@@ -1974,7 +1974,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-HK"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2006,7 +2006,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1903565632"/>
@@ -2048,7 +2048,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-HK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2075,7 +2075,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-HK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2684,7 +2684,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2982,66 +2982,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D6BDF9-59D0-40CD-BC28-775D103D86E1}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="22" width="7.5" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.625" style="1"/>
+    <col min="1" max="1" width="21.44140625" style="1" customWidth="1"/>
+    <col min="2" max="22" width="7.44140625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" thickBot="1">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+    <row r="1" spans="1:22" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
-    <row r="2" spans="1:22" ht="16.5" thickBot="1">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:22" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="21"/>
     </row>
-    <row r="3" spans="1:22" ht="18" thickBot="1">
+    <row r="3" spans="1:22" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>43766</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="17.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="17.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="17.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="17.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="35.25" thickBot="1">
+    <row r="9" spans="1:22" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="18" thickBot="1">
+    <row r="10" spans="1:22" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
@@ -3601,7 +3601,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V10" s="21">
+      <c r="V10" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
